--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1317728.843992372</v>
+        <v>1295366.812581717</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332964</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855588</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10189943.19389979</v>
+        <v>11248921.90017855</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>159.6190385214408</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>92.49556798565635</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>16.43083010065379</v>
       </c>
       <c r="T5" t="n">
-        <v>68.92273713484475</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>134.6751203255735</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>323.9918595228954</v>
+        <v>61.28737103419851</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>17.49690079789893</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -1344,10 +1344,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>304.5256817466121</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664349</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958679</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183532</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>126.739965984846</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677915</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>197.7630484607891</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>316.3882578900673</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664349</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958681</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183535</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>75.45203527283162</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>143.5307186024632</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>4.991670285228388</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>75.63981143849203</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>170.9606397709134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>182.9963790058364</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>122.313709559931</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.3062600431772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>163.352116301783</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>3.347695664762796</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>160.0006879278783</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961689</v>
+        <v>276.2330889766189</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>88.52416382797658</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064615</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064615</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1197.590022758555</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>786.6041179689473</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>368.6403098671342</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2153.87838018277</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2153.87838018277</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2153.87838018277</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>1780.41262192169</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="3">
@@ -4391,10 +4391,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.959449965771</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C5" t="n">
-        <v>797.9969330253591</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2680.552292936754</v>
       </c>
       <c r="T5" t="n">
-        <v>2627.530164619389</v>
+        <v>2680.552292936754</v>
       </c>
       <c r="U5" t="n">
-        <v>2627.530164619389</v>
+        <v>2680.552292936754</v>
       </c>
       <c r="V5" t="n">
-        <v>2296.467277275819</v>
+        <v>2349.489405593183</v>
       </c>
       <c r="W5" t="n">
-        <v>1943.698622005704</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="X5" t="n">
-        <v>1943.698622005704</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y5" t="n">
-        <v>1553.559290029893</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,10 +4649,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="F7" t="n">
         <v>562.6765899837193</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.981643776797</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1933911785532</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F8" t="n">
-        <v>381.2074863889456</v>
+        <v>115.8494172084438</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>365.6939024587809</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.553283416326</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>1496.590766475915</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1496.590766475915</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1110.80251387767</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>699.8166090880627</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541111</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662049</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403563</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604008</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389909</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331025</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3368.526868987454</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3015.758213717339</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.29245545626</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.153123480448</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>73.99179512662049</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>403.4201994324298</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>907.7817392985476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.327088765651</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.983830418315</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884838</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>654.2963388830449</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C13" t="n">
-        <v>654.2963388830449</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>504.1796994707091</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>356.266605888316</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662049</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222299</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230478</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422853</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783891</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669875</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>943.448515305365</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>943.448515305365</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>943.448515305365</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>654.2963388830449</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>654.2963388830449</v>
+        <v>1299.155615547004</v>
       </c>
       <c r="W13" t="n">
-        <v>654.2963388830449</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X13" t="n">
-        <v>654.2963388830449</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y13" t="n">
-        <v>654.2963388830449</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2134.774920425097</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>1765.812403484685</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.546704877934</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1021.75845227969</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>610.7725474900825</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>193.68476572651</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>193.68476572651</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403566</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556124</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331024</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331024</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331024</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>3484.789894598735</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>3231.098191343886</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3231.098191343886</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3231.098191343886</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>2911.51409246503</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2521.374760489219</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835158</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893249</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1205.938327510046</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273626</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026348</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662049</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662049</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222299</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230477</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422851</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783889</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669873</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165602</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585962</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585962</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>997.7122995426978</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>772.0831028550626</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U16" t="n">
-        <v>482.9309264327424</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V16" t="n">
-        <v>228.2464382268554</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>228.2464382268554</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>228.2464382268554</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>228.2464382268554</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5600,16 +5600,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>967.1285778917498</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>967.1285778917498</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.92115703528</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1187.92115703528</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>967.1285778917498</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,25 +5779,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341671</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126628</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918009</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136706</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>418.0853130833035</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>249.1491301553966</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1422.512420620032</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570734</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570734</v>
+        <v>843.9666117966292</v>
       </c>
       <c r="X22" t="n">
-        <v>820.5263570570734</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y22" t="n">
-        <v>599.7337779135432</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -6077,7 +6077,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>247.6350999123426</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,28 +6205,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.223678370532</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C28" t="n">
-        <v>394.223678370532</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1314.07144327928</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1314.07144327928</v>
+        <v>1375.367068982215</v>
       </c>
       <c r="U28" t="n">
-        <v>1314.07144327928</v>
+        <v>1086.238430195773</v>
       </c>
       <c r="V28" t="n">
-        <v>1314.07144327928</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W28" t="n">
-        <v>1024.654273242319</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X28" t="n">
-        <v>796.6647223443018</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y28" t="n">
-        <v>575.8721432007717</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4503.13917884751</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>4334.202995919603</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507268</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924875</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>4860.854573014292</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>4860.854573014292</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>4860.854573014292</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>4684.78764367775</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4503.13917884751</v>
+        <v>414.0663679705858</v>
       </c>
       <c r="C34" t="n">
-        <v>4334.202995919603</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D34" t="n">
-        <v>4184.086356507268</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>4860.854573014292</v>
+        <v>1333.914132879334</v>
       </c>
       <c r="W34" t="n">
-        <v>4860.854573014292</v>
+        <v>1044.496962842373</v>
       </c>
       <c r="X34" t="n">
-        <v>4860.854573014292</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y34" t="n">
-        <v>4684.78764367775</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,16 +6922,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.130855347408</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>1113.513998854602</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>892.7214197110717</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
@@ -7201,7 +7201,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507269</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507269</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507269</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507269</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507269</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507269</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507269</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7417,46 +7417,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>355.5716216891792</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>186.6354387612723</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V43" t="n">
-        <v>986.0022165609664</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W43" t="n">
-        <v>986.0022165609664</v>
+        <v>714.9354044297403</v>
       </c>
       <c r="X43" t="n">
-        <v>758.0126656629491</v>
+        <v>486.9458535317229</v>
       </c>
       <c r="Y43" t="n">
-        <v>537.2200865194189</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1966.019627967826</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2486.320249703573</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>1259.037062672588</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928724</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1979795937001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>48.1056061726423</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9482,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9725,10 +9725,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.6266194094365</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>158.7285995226329</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>147.5255832228131</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>149.812901461152</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>108.3912221993247</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.68108203808529</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
-        <v>17.6958418817692</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>54.37459486303894</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752157</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>53.3428427884017</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176923</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677915</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9138466272871</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>5.08475441574916</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>143.623802732984</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>145.9077496198972</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>115.5623585656776</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>14.9244309777668</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>99.23385149845824</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.27839330891754</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>88.78552702204499</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>282.8896567338145</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>65.70896746115884</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024085</v>
+        <v>10.0042634219584</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>77.96940463540101</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,16 +25839,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>48.75693659211589</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26076,10 +26076,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.75693659211589</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>720539.9926437237</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>720539.9926437238</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>720539.9926437237</v>
+        <v>1011823.852443046</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834666.8331522864</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834666.8331522862</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173333</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173336</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626556</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626555</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="G2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114797</v>
@@ -26340,22 +26340,22 @@
         <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
+        <v>430131.9657114799</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="O2" t="n">
-        <v>430131.9657114797</v>
-      </c>
       <c r="P2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188425</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659107</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965289</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>27086.83710496504</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>24740.78594361633</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>24740.78594361634</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360135</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360135</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-381845.9233655856</v>
+        <v>-386886.8516391224</v>
       </c>
       <c r="C6" t="n">
-        <v>208121.9558489591</v>
+        <v>203081.0275754221</v>
       </c>
       <c r="D6" t="n">
-        <v>208121.955848959</v>
+        <v>203081.0275754221</v>
       </c>
       <c r="E6" t="n">
-        <v>29450.12341659542</v>
+        <v>-210164.5955607255</v>
       </c>
       <c r="F6" t="n">
-        <v>277596.8920354379</v>
+        <v>314995.4409161709</v>
       </c>
       <c r="G6" t="n">
-        <v>52207.14290998176</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758922</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758923</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832995</v>
+        <v>138572.2217235779</v>
       </c>
       <c r="K6" t="n">
-        <v>315970.0321758923</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="L6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="M6" t="n">
-        <v>253516.9762862394</v>
+        <v>180194.4256823336</v>
       </c>
       <c r="N6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161708</v>
       </c>
       <c r="O6" t="n">
-        <v>246105.1473259811</v>
+        <v>314995.4409161707</v>
       </c>
       <c r="P6" t="n">
-        <v>315970.0321758924</v>
+        <v>314995.4409161709</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380634</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380631</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827561</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>924.897439082756</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209767</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160371</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708171</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708171</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>164.3037342429164</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>106.4552913801948</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>157.9848827083177</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>10.74592769735776</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>352.4967989865965</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198243</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651535</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779012</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>376.502430971252</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074812</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359658</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822507</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426691</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457569</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810501</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916531</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512814</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900643</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947068</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080781</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308302</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>9.51507583820699</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784121</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490358</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790237</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441086</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104756</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937804</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522781</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198242</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>24.4339180405515</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651532</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937395</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779011</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712519</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074811</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359657</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822506</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426689</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457568</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810499</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916531</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358593</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840362</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985297</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182826</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847379</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070422</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512813</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842444</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900642</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947067</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671566</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607452</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080778</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784619</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>5.1453258133083</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897123</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.07020280388831</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206986</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>32.1839170478412</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490355</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790237</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889948</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676921</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441086</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714132</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720916</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104753</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937802</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685355</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>4.57268470752278</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390791</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.545352539127</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040854</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517152</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>638.098798973041</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233093</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588822</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312121</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452619</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748664</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>647.015504512226</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406731</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>467.3215277439625</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472374</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>186.699994849311</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233372</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369851</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353173</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.545352539127</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040853</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517151</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730409</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513589</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233092</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>433.651561958882</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.652485631212</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584801</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452618</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748663</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622261</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793732</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269917</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927635</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105728</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531408</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>186.699994849311</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295327</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233372</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854529</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369851</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353145</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38110,16 +38110,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>138.6396521945106</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1295366.812581717</v>
+        <v>1313482.526123279</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2083705.798332965</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>3522967.675855584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11248921.90017855</v>
+        <v>10189943.19389979</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>159.6190385214408</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>25.04399030169403</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>28.51033041214347</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>16.43083010065379</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>178.644132529247</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>61.28737103419851</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>115.8126365492376</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.275596830496628</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>321.7500572310606</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>45.99540109184928</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>197.7630484607891</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>179.7188787253433</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>6.969929324090756</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>27.55584844405772</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>75.63981143849203</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.347695664762908</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>122.313709559931</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>9.283721801528012</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>115.5269768002176</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>163.352116301783</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>195.8155841663235</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>3.347695664762796</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>70.28434394414768</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>191.6534898356754</v>
       </c>
       <c r="U40" t="n">
-        <v>276.2330889766189</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>237.4804158064615</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>122.0600049243413</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>237.4804158064615</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1583.378275356799</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>1583.378275356799</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.378275356799</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.590022758555</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>786.6041179689473</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>368.6403098671342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.378275356799</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>229.6312428658945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>82.74129536798412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>82.74129536798412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>82.74129536798412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2680.552292936754</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2680.552292936754</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2680.552292936754</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2349.489405593183</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="W5" t="n">
-        <v>1996.720750323069</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X5" t="n">
-        <v>1996.720750323069</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1996.720750323069</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,10 +4649,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.851790143458</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.889273203046</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>912.6235745962956</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>526.8353219980513</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>115.8494172084438</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2348.96045270204</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>99.59950625323012</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V10" t="n">
-        <v>99.59950625323012</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>1981.816309027609</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>1612.853792087197</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3132.021239328622</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>2758.555481067542</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2368.41614909173</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>843.6704145912394</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1484.215764058343</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2157.421456311125</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R12" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S12" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.9563154684962</v>
+        <v>120.4517962294986</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>120.4517962294986</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>120.4517962294986</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>120.4517962294986</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>120.4517962294986</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V13" t="n">
-        <v>1299.155615547004</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.738445510044</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="X13" t="n">
-        <v>781.7488946120263</v>
+        <v>302.1002610597383</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.9563154684962</v>
+        <v>302.1002610597383</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2196.616170759897</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>1827.653653819485</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1469.387955212735</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1083.599702614491</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>672.6137978248832</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>255.5260160613107</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3346.821101060911</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>2973.355342799831</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2583.216010824019</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1087.279075653151</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S15" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>523.0494793071589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>523.0494793071589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>523.0494793071589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>375.1363857247658</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>1090.100879744681</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>784.7743001636425</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>530.0898119577556</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>523.0494793071589</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,40 +5737,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1422.512420620032</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1133.38378183359</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>1133.38378183359</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>843.9666117966292</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>615.9770608986119</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y22" t="n">
-        <v>615.9770608986119</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="23">
@@ -5980,34 +5980,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>100.5986022327736</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>282.2470670630133</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,25 +6293,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1375.367068982215</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>1086.238430195773</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>831.5539419898857</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>542.1367719529251</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>542.1367719529251</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,16 +6448,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,13 +6466,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201016</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201016</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201016</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>213.9110074201016</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201016</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.0663679705858</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C34" t="n">
-        <v>245.1301850426789</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D34" t="n">
-        <v>245.1301850426789</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1333.914132879334</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1044.496962842373</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>816.5074119443557</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y34" t="n">
-        <v>595.7148328008255</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U40" t="n">
-        <v>1219.892948359297</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V40" t="n">
-        <v>965.2084601534104</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W40" t="n">
-        <v>675.7912901164499</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X40" t="n">
-        <v>447.8017392184325</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184325</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7408,13 +7408,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,40 +7423,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1259.037062672588</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1004.352574466701</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>714.9354044297403</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>486.9458535317229</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>538.8019868198124</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1259.037062672588</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>1004.352574466701</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W46" t="n">
-        <v>714.9354044297402</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X46" t="n">
-        <v>486.9458535317228</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>720.4504516500522</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>186.2236012992132</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>167.9634363311212</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>127.646125010065</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>302.7082681684409</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22707,28 +22707,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22843,13 +22843,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>149.1081259408879</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>135.4115309590517</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>50.78177823929096</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>32.93298438962233</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>120.9253754627211</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>54.37459486303894</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>135.3220053498723</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>14.74113413690327</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>211.614724028004</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542517</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.9377200193199</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,19 +24180,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>145.9077496198972</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>143.0862669818063</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>99.23385149845824</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>170.5482583804093</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>88.78552702204499</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>282.8896567338145</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>148.3003094079471</v>
       </c>
     </row>
     <row r="38">
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>29.89407122271382</v>
       </c>
       <c r="U40" t="n">
-        <v>10.0042634219584</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.75693659211589</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.18681617428651</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>48.75693659211589</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1011823.852443046</v>
+        <v>720539.9926437237</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959856.5572667965</v>
+        <v>834666.8331522864</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959856.5572667965</v>
+        <v>834666.8331522862</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>959856.5572667965</v>
+        <v>959856.5572667964</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>959856.5572667964</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
+        <v>371509.2212626559</v>
+      </c>
+      <c r="F2" t="n">
+        <v>371509.2212626556</v>
+      </c>
+      <c r="G2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="F2" t="n">
-        <v>430131.9657114799</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="I2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="H2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="I2" t="n">
-        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114798</v>
@@ -26349,13 +26349,13 @@
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114797</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>248146.7686188427</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>263762.8892659104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>62453.05588965292</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69864.88484991125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>24740.78594361633</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
@@ -26453,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="P4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.60758687072</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="F5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386886.8516391224</v>
+        <v>-382452.7647401673</v>
       </c>
       <c r="C6" t="n">
-        <v>203081.0275754221</v>
+        <v>207515.1144743769</v>
       </c>
       <c r="D6" t="n">
-        <v>203081.0275754221</v>
+        <v>207515.1144743769</v>
       </c>
       <c r="E6" t="n">
-        <v>-210164.5955607255</v>
+        <v>29086.19727040138</v>
       </c>
       <c r="F6" t="n">
-        <v>314995.4409161709</v>
+        <v>277232.9658892438</v>
       </c>
       <c r="G6" t="n">
-        <v>314995.4409161708</v>
+        <v>52109.68378400985</v>
       </c>
       <c r="H6" t="n">
-        <v>314995.4409161707</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="I6" t="n">
-        <v>314995.4409161707</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="J6" t="n">
-        <v>138572.2217235779</v>
+        <v>139449.3538573273</v>
       </c>
       <c r="K6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="L6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="M6" t="n">
-        <v>180194.4256823336</v>
+        <v>253419.5171602673</v>
       </c>
       <c r="N6" t="n">
-        <v>314995.4409161708</v>
+        <v>315872.5730499203</v>
       </c>
       <c r="O6" t="n">
-        <v>314995.4409161707</v>
+        <v>246007.6882000089</v>
       </c>
       <c r="P6" t="n">
-        <v>314995.4409161709</v>
+        <v>315872.5730499202</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>215.7324361209769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>236.9063051160367</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708168</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>164.3037342429164</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.4552913801948</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>157.9848827083177</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>10.74592769735776</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>352.4967989865965</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>324.8393568706205</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>368.6268117378523</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>334.7395399415897</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37870,13 +37870,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
